--- a/biology/Médecine/Gusztav_von_Oláh/Gusztav_von_Oláh.xlsx
+++ b/biology/Médecine/Gusztav_von_Oláh/Gusztav_von_Oláh.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gusztav_von_Ol%C3%A1h</t>
+          <t>Gusztav_von_Oláh</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gusztáv Oláh de Lanzsér et Talmács (lanzséri és talmácsi Oláh Gusztáv en hongrois ; Gustav Ladislaus Julius von Oláh en allemand) (1857-1944) est un psychiatre hongrois.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gusztav_von_Ol%C3%A1h</t>
+          <t>Gusztav_von_Oláh</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Orphelin dès l'âge de deux ans de László Oláh (hu), avocat, et de Otilia Burchard-Bélaváry, Gusztáv Oláh est élevé par son oncle Konrád Burchard Bélaváry. Ses humanités terminées à Eger, il étudie à l'Université de Vienne où il est reçu docteur en médecine en 1811. Il travaille la même année au sein de l'Institut psychiatrique de Lipótmező, à Budapest. Il poursuit sa formation à Paris avec Charcot en 1882. Il est directeur de l'Institut psychiatrique et neurologique d'Angyalföld (hu) à Budapest à partir de 1886 et de l'Institut psychiatrique de Lipótmező à partir de 1910 jusqu'à sa retraite en 1925. Il travailla au rapprochement de la psychiatrie et de la neurologie.
 Il est conseiller ministériel en 1916 puis secrétaire d'Etat honoraire. Il est nommé en 1926 vice-président du Conseil royal de médecine légale. 
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gusztav_von_Ol%C3%A1h</t>
+          <t>Gusztav_von_Oláh</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,13 +559,15 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Magyar Életrajzi Lexikon 1000–1990 [1]
-Károly Kapronczay:  Magyar Orvoséletrajzi Lexikon, Mundus Kiadó [2]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Magyar Életrajzi Lexikon 1000–1990 
+Károly Kapronczay:  Magyar Orvoséletrajzi Lexikon, Mundus Kiadó 
 Oláh, Gusztav von (1857-1944), Österreichisches Biographisches Lexikon 1815–1950, Bd. 7 (Lfg. 33, 1977), S. 224
-Kiszlingstein Könyvészete ; M. Könyvészet 1895 ; Corvina 1903 [3]
-Antal Oberhammer: Lexikon, Pécs, 1871 [4]
+Kiszlingstein Könyvészete ; M. Könyvészet 1895 ; Corvina 1903 
+Antal Oberhammer: Lexikon, Pécs, 1871 
  Portail de la médecine   Portail de la Hongrie   Portail de la psychologie                   </t>
         </is>
       </c>
